--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Gp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias34Gp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74296169-CB4A-448B-B324-1343E602088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825A6E4-5DDF-4FE3-9B7F-D2DB6EAF227E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,11 +273,6 @@
   </si>
   <si>
     <t>年月份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B=協議前; 
-A=協議後;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -836,6 +831,11 @@
   <si>
     <t>(月底日日終批次)維護 IAS34 欄位清單G檔</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:協議前
+A:協議後</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="10"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B3" s="63"/>
       <c r="C3" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="19"/>
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>41</v>
@@ -1855,7 +1855,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="58"/>
       <c r="H9" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>28</v>
@@ -1877,7 +1877,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="58"/>
       <c r="H10" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1899,7 +1899,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="58"/>
       <c r="H11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>39</v>
@@ -1921,7 +1921,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="58"/>
       <c r="H12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4">
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>40</v>
@@ -1942,10 +1942,10 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="58" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1967,7 +1967,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="58"/>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>31</v>
@@ -1989,7 +1989,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="58"/>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2592,24 +2592,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="50" customFormat="1">
       <c r="A1" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="50" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2634,17 +2634,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="193.8">
       <c r="A2" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="205.2">
       <c r="A3" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2652,17 +2652,17 @@
     </row>
     <row r="5" spans="1:1" s="53" customFormat="1" ht="11.4">
       <c r="A5" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="53" customFormat="1" ht="216.6">
       <c r="A6" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="53" customFormat="1" ht="228">
       <c r="A7" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="53" customFormat="1" ht="11.4">
@@ -2709,12 +2709,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="178.2">
       <c r="A2" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2776,13 +2776,13 @@
         <v>402</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="46">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="46">
         <v>10</v>
@@ -2796,13 +2796,13 @@
         <v>402</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="46">
         <v>9</v>
@@ -2816,13 +2816,13 @@
         <v>2879</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="46">
         <v>2</v>
@@ -2836,13 +2836,13 @@
         <v>2879</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="46">
         <v>1</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="46">
         <v>2</v>
@@ -2856,13 +2856,13 @@
         <v>7120</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="46">
         <v>1</v>
@@ -2876,13 +2876,13 @@
         <v>7120</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="46">
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="46">
         <v>1</v>
@@ -2896,13 +2896,13 @@
         <v>12876</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="46">
         <v>1</v>
@@ -2916,13 +2916,13 @@
         <v>12876</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="46">
         <v>1</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="46">
         <v>1</v>
@@ -2936,13 +2936,13 @@
         <v>17290</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="46">
         <v>1</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="46">
         <v>2</v>
@@ -2956,13 +2956,13 @@
         <v>17290</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="46">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>17309</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="46">
         <v>1</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="46">
         <v>4</v>
@@ -2996,13 +2996,13 @@
         <v>17309</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="46">
         <v>1</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="46">
         <v>3</v>
@@ -3016,13 +3016,13 @@
         <v>17309</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="46">
         <v>2</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="46">
         <v>5</v>
@@ -3036,13 +3036,13 @@
         <v>17309</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="46">
         <v>2</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="46">
         <v>4</v>
@@ -3056,13 +3056,13 @@
         <v>20479</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="47">
         <v>1</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="47">
         <v>2</v>
@@ -3076,13 +3076,13 @@
         <v>20479</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="47">
         <v>1</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="47">
         <v>2</v>
@@ -3096,13 +3096,13 @@
         <v>20479</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="47">
         <v>1</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="47">
         <v>2</v>
@@ -3116,13 +3116,13 @@
         <v>20479</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="47">
         <v>1</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="47">
         <v>2</v>
@@ -3136,13 +3136,13 @@
         <v>20479</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="47">
         <v>1</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="47">
         <v>2</v>
@@ -3156,13 +3156,13 @@
         <v>20479</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="47">
         <v>1</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="47">
         <v>1</v>
@@ -3176,13 +3176,13 @@
         <v>30495</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="46">
         <v>1</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="46">
         <v>2</v>
@@ -3196,13 +3196,13 @@
         <v>30495</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="46">
         <v>1</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="46">
         <v>1</v>
@@ -3216,13 +3216,13 @@
         <v>48675</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="46">
         <v>1</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="46">
         <v>1</v>
@@ -3236,13 +3236,13 @@
         <v>48675</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="46">
         <v>1</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="46">
         <v>1</v>
@@ -3256,13 +3256,13 @@
         <v>48675</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="46">
         <v>1</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="46">
         <v>1</v>
@@ -3276,13 +3276,13 @@
         <v>107109</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="47">
         <v>1</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="47">
         <v>3</v>
@@ -3296,13 +3296,13 @@
         <v>107109</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="47">
         <v>1</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="47">
         <v>2</v>
@@ -3316,13 +3316,13 @@
         <v>107109</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="47">
         <v>1</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="47">
         <v>2</v>
@@ -3336,13 +3336,13 @@
         <v>149039</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="46">
         <v>1</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="46">
         <v>2</v>
@@ -3356,13 +3356,13 @@
         <v>149039</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="46">
         <v>1</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="46">
         <v>1</v>
@@ -3376,13 +3376,13 @@
         <v>152141</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="46">
         <v>1</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="46">
         <v>2</v>
@@ -3396,13 +3396,13 @@
         <v>152141</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="46">
         <v>1</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="46">
         <v>1</v>
@@ -3416,13 +3416,13 @@
         <v>152141</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="46">
         <v>1</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="46">
         <v>1</v>
@@ -3436,13 +3436,13 @@
         <v>178402</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="46">
         <v>1</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="46">
         <v>4</v>
@@ -3456,13 +3456,13 @@
         <v>178402</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="46">
         <v>1</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="46">
         <v>3</v>
@@ -3476,13 +3476,13 @@
         <v>189372</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="46">
         <v>1</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="46">
         <v>2</v>
@@ -3496,13 +3496,13 @@
         <v>189372</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="46">
         <v>1</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
@@ -3516,13 +3516,13 @@
         <v>189372</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="46">
         <v>1</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="46">
         <v>1</v>
@@ -3536,13 +3536,13 @@
         <v>212830</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="46">
         <v>1</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="46">
         <v>5</v>
@@ -3556,13 +3556,13 @@
         <v>212830</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="46">
         <v>1</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="46">
         <v>4</v>
@@ -3576,13 +3576,13 @@
         <v>258057</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="46">
         <v>1</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="46">
         <v>2</v>
@@ -3596,13 +3596,13 @@
         <v>258057</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="46">
         <v>1</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="46">
         <v>2</v>
@@ -3616,13 +3616,13 @@
         <v>258057</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="46">
         <v>1</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="46">
         <v>2</v>
@@ -3636,13 +3636,13 @@
         <v>264298</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="46">
         <v>1</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="46">
         <v>1</v>
@@ -3656,13 +3656,13 @@
         <v>264298</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="46">
         <v>1</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="46">
         <v>1</v>
@@ -3676,13 +3676,13 @@
         <v>264298</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="46">
         <v>1</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" s="46">
         <v>1</v>
@@ -3696,13 +3696,13 @@
         <v>310973</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="46">
         <v>1</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="46">
         <v>1</v>
@@ -3716,13 +3716,13 @@
         <v>310973</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="46">
         <v>1</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="46">
         <v>1</v>
@@ -3736,13 +3736,13 @@
         <v>338361</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="46">
         <v>1</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="46">
         <v>1</v>
@@ -3756,13 +3756,13 @@
         <v>338361</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="46">
         <v>1</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" s="46">
         <v>1</v>
@@ -3776,13 +3776,13 @@
         <v>375008</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="48">
         <v>1</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="48">
         <v>8</v>
@@ -3796,13 +3796,13 @@
         <v>375008</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="48">
         <v>1</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" s="48">
         <v>7</v>
@@ -3816,13 +3816,13 @@
         <v>375008</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="48">
         <v>2</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="48">
         <v>9</v>
@@ -3836,13 +3836,13 @@
         <v>375008</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="48">
         <v>2</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="48">
         <v>8</v>
@@ -3856,13 +3856,13 @@
         <v>418771</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="46">
         <v>1</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="46">
         <v>3</v>
@@ -3876,13 +3876,13 @@
         <v>418771</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="46">
         <v>1</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="46">
         <v>2</v>
@@ -3896,13 +3896,13 @@
         <v>420290</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="46">
         <v>1</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="46">
         <v>1</v>
@@ -3916,13 +3916,13 @@
         <v>420290</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="46">
         <v>1</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="46">
         <v>1</v>
@@ -3936,13 +3936,13 @@
         <v>450158</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="48">
         <v>1</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="48">
         <v>3</v>
@@ -3956,13 +3956,13 @@
         <v>450158</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="48">
         <v>1</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="48">
         <v>4</v>
@@ -3976,13 +3976,13 @@
         <v>450158</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="48">
         <v>1</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E61" s="48">
         <v>2</v>
@@ -3996,13 +3996,13 @@
         <v>463556</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="46">
         <v>1</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="46">
         <v>2</v>
@@ -4016,13 +4016,13 @@
         <v>463556</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="46">
         <v>1</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="46">
         <v>2</v>
@@ -4036,13 +4036,13 @@
         <v>477951</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="46">
         <v>1</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="46">
         <v>7</v>
@@ -4056,13 +4056,13 @@
         <v>477951</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="46">
         <v>1</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E65" s="46">
         <v>5</v>
@@ -4076,13 +4076,13 @@
         <v>503493</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="46">
         <v>1</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="46">
         <v>2</v>
@@ -4096,13 +4096,13 @@
         <v>503493</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="46">
         <v>1</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E67" s="46">
         <v>1</v>
@@ -4116,13 +4116,13 @@
         <v>510650</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="46">
         <v>1</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" s="46">
         <v>1</v>
@@ -4136,13 +4136,13 @@
         <v>510650</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="46">
         <v>1</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E69" s="46">
         <v>1</v>
@@ -4156,13 +4156,13 @@
         <v>510650</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="46">
         <v>1</v>
       </c>
       <c r="D70" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E70" s="46">
         <v>1</v>
@@ -4176,13 +4176,13 @@
         <v>510650</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="46">
         <v>1</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E71" s="46">
         <v>1</v>
@@ -4196,13 +4196,13 @@
         <v>551129</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="46">
         <v>1</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E72" s="46">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>551129</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="46">
         <v>1</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" s="46">
         <v>1</v>
@@ -4236,13 +4236,13 @@
         <v>551129</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="46">
         <v>1</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="46">
         <v>1</v>
@@ -4256,13 +4256,13 @@
         <v>559191</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="46">
         <v>1</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="46">
         <v>2</v>
@@ -4276,13 +4276,13 @@
         <v>559191</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="46">
         <v>1</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" s="46">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E77" s="46">
         <v>5</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E78" s="46">
         <v>4</v>
@@ -4336,13 +4336,13 @@
         <v>564838</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="46">
         <v>1</v>
       </c>
       <c r="D79" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="46">
         <v>1</v>
@@ -4356,13 +4356,13 @@
         <v>564838</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="46">
         <v>1</v>
       </c>
       <c r="D80" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E80" s="46">
         <v>1</v>
@@ -4376,13 +4376,13 @@
         <v>575918</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="46">
         <v>1</v>
       </c>
       <c r="D81" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E81" s="46">
         <v>3</v>
@@ -4396,13 +4396,13 @@
         <v>575918</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="46">
         <v>1</v>
       </c>
       <c r="D82" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E82" s="46">
         <v>2</v>
@@ -4416,13 +4416,13 @@
         <v>610500</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="46">
         <v>1</v>
       </c>
       <c r="D83" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E83" s="46">
         <v>2</v>
@@ -4436,13 +4436,13 @@
         <v>610500</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="46">
         <v>1</v>
       </c>
       <c r="D84" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84" s="46">
         <v>2</v>
@@ -4456,13 +4456,13 @@
         <v>610500</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="46">
         <v>1</v>
       </c>
       <c r="D85" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E85" s="46">
         <v>2</v>
@@ -4476,13 +4476,13 @@
         <v>610500</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" s="46">
         <v>1</v>
       </c>
       <c r="D86" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E86" s="46">
         <v>2</v>
@@ -4496,13 +4496,13 @@
         <v>610500</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="46">
         <v>1</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" s="46">
         <v>2</v>
@@ -4516,13 +4516,13 @@
         <v>610500</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="46">
         <v>1</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E88" s="46">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" s="46">
         <v>3</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E90" s="46">
         <v>2</v>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E91" s="46">
         <v>4</v>
@@ -4602,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E92" s="46">
         <v>3</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" s="46">
         <v>5</v>
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E94" s="46">
         <v>4</v>
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E95" s="46">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E96" s="46">
         <v>1</v>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E97" s="46">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E98" s="46">
         <v>1</v>
@@ -4736,13 +4736,13 @@
         <v>1124103</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="46">
         <v>1</v>
       </c>
       <c r="D99" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E99" s="46">
         <v>1</v>
@@ -4756,13 +4756,13 @@
         <v>1124103</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="46">
         <v>1</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E100" s="46">
         <v>1</v>
@@ -4776,13 +4776,13 @@
         <v>1124338</v>
       </c>
       <c r="B101" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="46">
         <v>1</v>
       </c>
       <c r="D101" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E101" s="46">
         <v>3</v>
@@ -4796,13 +4796,13 @@
         <v>1124338</v>
       </c>
       <c r="B102" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="46">
         <v>1</v>
       </c>
       <c r="D102" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E102" s="46">
         <v>2</v>
@@ -4816,13 +4816,13 @@
         <v>1124338</v>
       </c>
       <c r="B103" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="46">
         <v>1</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E103" s="46">
         <v>2</v>
@@ -4836,13 +4836,13 @@
         <v>1124338</v>
       </c>
       <c r="B104" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="46">
         <v>1</v>
       </c>
       <c r="D104" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E104" s="46">
         <v>2</v>
@@ -4856,13 +4856,13 @@
         <v>1124338</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="46">
         <v>1</v>
       </c>
       <c r="D105" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E105" s="46">
         <v>2</v>
@@ -4876,13 +4876,13 @@
         <v>1124338</v>
       </c>
       <c r="B106" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="46">
         <v>1</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E106" s="46">
         <v>2</v>
@@ -4896,13 +4896,13 @@
         <v>1132419</v>
       </c>
       <c r="B107" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="46">
         <v>1</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E107" s="46">
         <v>1</v>
@@ -4916,13 +4916,13 @@
         <v>1132419</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="46">
         <v>1</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E108" s="46">
         <v>1</v>
@@ -4936,13 +4936,13 @@
         <v>1141439</v>
       </c>
       <c r="B109" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="46">
         <v>1</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E109" s="46">
         <v>1</v>
@@ -4956,13 +4956,13 @@
         <v>1141439</v>
       </c>
       <c r="B110" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="46">
         <v>1</v>
       </c>
       <c r="D110" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E110" s="46">
         <v>1</v>
@@ -4976,13 +4976,13 @@
         <v>1147901</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="48">
         <v>1</v>
       </c>
       <c r="D111" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E111" s="48">
         <v>2</v>
@@ -4996,13 +4996,13 @@
         <v>1147901</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="48">
         <v>1</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E112" s="48">
         <v>2</v>
@@ -5016,13 +5016,13 @@
         <v>1147901</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="48">
         <v>1</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113" s="48">
         <v>2</v>
@@ -5036,13 +5036,13 @@
         <v>1147901</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="48">
         <v>1</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114" s="48">
         <v>2</v>
@@ -5056,13 +5056,13 @@
         <v>1147901</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="48">
         <v>1</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E115" s="48">
         <v>2</v>
@@ -5076,13 +5076,13 @@
         <v>1147901</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="48">
         <v>1</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E116" s="48">
         <v>1</v>
@@ -5096,13 +5096,13 @@
         <v>1147901</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" s="48">
         <v>2</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E117" s="48">
         <v>3</v>
@@ -5116,13 +5116,13 @@
         <v>1147901</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="48">
         <v>2</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E118" s="48">
         <v>2</v>
@@ -5136,13 +5136,13 @@
         <v>1147901</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="48">
         <v>2</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E119" s="48">
         <v>2</v>
@@ -5156,13 +5156,13 @@
         <v>1148381</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" s="46">
         <v>1</v>
       </c>
       <c r="D120" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E120" s="46">
         <v>5</v>
@@ -5176,13 +5176,13 @@
         <v>1148381</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C121" s="46">
         <v>1</v>
       </c>
       <c r="D121" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E121" s="46">
         <v>2</v>
@@ -5196,13 +5196,13 @@
         <v>1148381</v>
       </c>
       <c r="B122" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C122" s="46">
         <v>1</v>
       </c>
       <c r="D122" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E122" s="46">
         <v>2</v>
@@ -5216,13 +5216,13 @@
         <v>1148381</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C123" s="46">
         <v>1</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E123" s="46">
         <v>2</v>
@@ -5236,13 +5236,13 @@
         <v>1149353</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124" s="46">
         <v>1</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E124" s="46">
         <v>2</v>
@@ -5256,13 +5256,13 @@
         <v>1149353</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C125" s="46">
         <v>1</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E125" s="46">
         <v>1</v>
@@ -5276,13 +5276,13 @@
         <v>1151952</v>
       </c>
       <c r="B126" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" s="46">
         <v>1</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E126" s="46">
         <v>2</v>
@@ -5296,13 +5296,13 @@
         <v>1151952</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C127" s="46">
         <v>1</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E127" s="46">
         <v>1</v>
@@ -5316,13 +5316,13 @@
         <v>1151952</v>
       </c>
       <c r="B128" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C128" s="46">
         <v>1</v>
       </c>
       <c r="D128" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E128" s="46">
         <v>1</v>
@@ -5336,13 +5336,13 @@
         <v>1156571</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C129" s="46">
         <v>1</v>
       </c>
       <c r="D129" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E129" s="46">
         <v>2</v>
@@ -5356,13 +5356,13 @@
         <v>1156571</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C130" s="46">
         <v>1</v>
       </c>
       <c r="D130" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E130" s="46">
         <v>1</v>
@@ -5376,13 +5376,13 @@
         <v>1158813</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C131" s="46">
         <v>1</v>
       </c>
       <c r="D131" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E131" s="46">
         <v>2</v>
@@ -5396,13 +5396,13 @@
         <v>1158813</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132" s="46">
         <v>1</v>
       </c>
       <c r="D132" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E132" s="46">
         <v>1</v>
@@ -5416,13 +5416,13 @@
         <v>1159365</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C133" s="46">
         <v>1</v>
       </c>
       <c r="D133" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E133" s="46">
         <v>4</v>
@@ -5436,13 +5436,13 @@
         <v>1159365</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" s="46">
         <v>1</v>
       </c>
       <c r="D134" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E134" s="46">
         <v>3</v>
@@ -5456,13 +5456,13 @@
         <v>1159972</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C135" s="46">
         <v>1</v>
       </c>
       <c r="D135" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E135" s="46">
         <v>2</v>
@@ -5476,13 +5476,13 @@
         <v>1159972</v>
       </c>
       <c r="B136" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C136" s="46">
         <v>1</v>
       </c>
       <c r="D136" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E136" s="46">
         <v>1</v>
@@ -5496,13 +5496,13 @@
         <v>1160513</v>
       </c>
       <c r="B137" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" s="46">
         <v>1</v>
       </c>
       <c r="D137" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E137" s="46">
         <v>2</v>
@@ -5516,13 +5516,13 @@
         <v>1160513</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138" s="46">
         <v>1</v>
       </c>
       <c r="D138" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E138" s="46">
         <v>2</v>
@@ -5536,13 +5536,13 @@
         <v>1160513</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C139" s="46">
         <v>1</v>
       </c>
       <c r="D139" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E139" s="46">
         <v>2</v>
@@ -5556,13 +5556,13 @@
         <v>1160513</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C140" s="46">
         <v>1</v>
       </c>
       <c r="D140" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E140" s="46">
         <v>2</v>
@@ -5576,13 +5576,13 @@
         <v>1160513</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C141" s="46">
         <v>1</v>
       </c>
       <c r="D141" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E141" s="46">
         <v>2</v>
@@ -5596,13 +5596,13 @@
         <v>1160513</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C142" s="46">
         <v>1</v>
       </c>
       <c r="D142" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E142" s="46">
         <v>1</v>
@@ -5616,13 +5616,13 @@
         <v>1163637</v>
       </c>
       <c r="B143" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C143" s="46">
         <v>1</v>
       </c>
       <c r="D143" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E143" s="46">
         <v>2</v>
@@ -5636,13 +5636,13 @@
         <v>1163637</v>
       </c>
       <c r="B144" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C144" s="46">
         <v>1</v>
       </c>
       <c r="D144" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E144" s="46">
         <v>1</v>
@@ -5656,13 +5656,13 @@
         <v>1163637</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C145" s="46">
         <v>1</v>
       </c>
       <c r="D145" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E145" s="46">
         <v>1</v>
@@ -5676,13 +5676,13 @@
         <v>1163637</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C146" s="46">
         <v>1</v>
       </c>
       <c r="D146" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E146" s="46">
         <v>1</v>
@@ -5696,13 +5696,13 @@
         <v>1169472</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C147" s="46">
         <v>1</v>
       </c>
       <c r="D147" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E147" s="46">
         <v>3</v>
@@ -5716,13 +5716,13 @@
         <v>1169472</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C148" s="46">
         <v>1</v>
       </c>
       <c r="D148" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E148" s="46">
         <v>2</v>
@@ -5736,13 +5736,13 @@
         <v>1169472</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C149" s="46">
         <v>1</v>
       </c>
       <c r="D149" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E149" s="46">
         <v>2</v>
@@ -5756,13 +5756,13 @@
         <v>1169817</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" s="46">
         <v>1</v>
       </c>
       <c r="D150" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E150" s="46">
         <v>3</v>
@@ -5776,13 +5776,13 @@
         <v>1169817</v>
       </c>
       <c r="B151" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C151" s="46">
         <v>1</v>
       </c>
       <c r="D151" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E151" s="46">
         <v>1</v>
@@ -5796,13 +5796,13 @@
         <v>1169980</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C152" s="46">
         <v>1</v>
       </c>
       <c r="D152" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E152" s="46">
         <v>3</v>
@@ -5816,13 +5816,13 @@
         <v>1169980</v>
       </c>
       <c r="B153" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C153" s="46">
         <v>1</v>
       </c>
       <c r="D153" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E153" s="46">
         <v>2</v>
@@ -5836,13 +5836,13 @@
         <v>1169980</v>
       </c>
       <c r="B154" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C154" s="46">
         <v>1</v>
       </c>
       <c r="D154" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E154" s="46">
         <v>2</v>
@@ -5856,13 +5856,13 @@
         <v>1173620</v>
       </c>
       <c r="B155" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C155" s="46">
         <v>1</v>
       </c>
       <c r="D155" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E155" s="46">
         <v>2</v>
@@ -5876,13 +5876,13 @@
         <v>1173620</v>
       </c>
       <c r="B156" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C156" s="46">
         <v>1</v>
       </c>
       <c r="D156" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E156" s="46">
         <v>1</v>
@@ -5896,13 +5896,13 @@
         <v>1174478</v>
       </c>
       <c r="B157" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C157" s="46">
         <v>1</v>
       </c>
       <c r="D157" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E157" s="46">
         <v>2</v>
@@ -5916,13 +5916,13 @@
         <v>1174478</v>
       </c>
       <c r="B158" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C158" s="46">
         <v>1</v>
       </c>
       <c r="D158" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E158" s="46">
         <v>2</v>
@@ -5936,13 +5936,13 @@
         <v>1174478</v>
       </c>
       <c r="B159" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C159" s="46">
         <v>1</v>
       </c>
       <c r="D159" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E159" s="46">
         <v>2</v>
@@ -5956,13 +5956,13 @@
         <v>1174478</v>
       </c>
       <c r="B160" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C160" s="46">
         <v>1</v>
       </c>
       <c r="D160" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E160" s="46">
         <v>1</v>
@@ -5976,13 +5976,13 @@
         <v>1179101</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C161" s="46">
         <v>1</v>
       </c>
       <c r="D161" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E161" s="46">
         <v>3</v>
@@ -5996,13 +5996,13 @@
         <v>1179101</v>
       </c>
       <c r="B162" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C162" s="46">
         <v>1</v>
       </c>
       <c r="D162" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E162" s="46">
         <v>1</v>
@@ -6016,13 +6016,13 @@
         <v>1179101</v>
       </c>
       <c r="B163" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C163" s="46">
         <v>1</v>
       </c>
       <c r="D163" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E163" s="46">
         <v>1</v>
@@ -6036,13 +6036,13 @@
         <v>1179135</v>
       </c>
       <c r="B164" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C164" s="46">
         <v>1</v>
       </c>
       <c r="D164" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E164" s="46">
         <v>3</v>
@@ -6056,13 +6056,13 @@
         <v>1179135</v>
       </c>
       <c r="B165" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C165" s="46">
         <v>1</v>
       </c>
       <c r="D165" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E165" s="46">
         <v>2</v>
@@ -6076,13 +6076,13 @@
         <v>1181089</v>
       </c>
       <c r="B166" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C166" s="46">
         <v>1</v>
       </c>
       <c r="D166" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E166" s="46">
         <v>3</v>
@@ -6096,13 +6096,13 @@
         <v>1181089</v>
       </c>
       <c r="B167" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C167" s="46">
         <v>1</v>
       </c>
       <c r="D167" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E167" s="46">
         <v>2</v>
@@ -6116,13 +6116,13 @@
         <v>1182688</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C168" s="46">
         <v>1</v>
       </c>
       <c r="D168" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E168" s="46">
         <v>1</v>
@@ -6136,13 +6136,13 @@
         <v>1182688</v>
       </c>
       <c r="B169" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C169" s="46">
         <v>1</v>
       </c>
       <c r="D169" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E169" s="46">
         <v>1</v>
@@ -6156,13 +6156,13 @@
         <v>1182688</v>
       </c>
       <c r="B170" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170" s="46">
         <v>1</v>
       </c>
       <c r="D170" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E170" s="46">
         <v>1</v>
@@ -6176,13 +6176,13 @@
         <v>1182688</v>
       </c>
       <c r="B171" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C171" s="46">
         <v>1</v>
       </c>
       <c r="D171" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E171" s="46">
         <v>1</v>
@@ -6196,13 +6196,13 @@
         <v>1182688</v>
       </c>
       <c r="B172" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C172" s="46">
         <v>1</v>
       </c>
       <c r="D172" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E172" s="46">
         <v>1</v>
@@ -6216,13 +6216,13 @@
         <v>1185520</v>
       </c>
       <c r="B173" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C173" s="46">
         <v>1</v>
       </c>
       <c r="D173" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E173" s="46">
         <v>2</v>
@@ -6236,13 +6236,13 @@
         <v>1185520</v>
       </c>
       <c r="B174" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C174" s="46">
         <v>1</v>
       </c>
       <c r="D174" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E174" s="46">
         <v>1</v>
@@ -6256,13 +6256,13 @@
         <v>1186019</v>
       </c>
       <c r="B175" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C175" s="46">
         <v>1</v>
       </c>
       <c r="D175" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E175" s="46">
         <v>3</v>
@@ -6276,13 +6276,13 @@
         <v>1186019</v>
       </c>
       <c r="B176" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C176" s="46">
         <v>1</v>
       </c>
       <c r="D176" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E176" s="46">
         <v>1</v>
@@ -6296,13 +6296,13 @@
         <v>1187402</v>
       </c>
       <c r="B177" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C177" s="46">
         <v>1</v>
       </c>
       <c r="D177" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E177" s="46">
         <v>2</v>
@@ -6316,13 +6316,13 @@
         <v>1187402</v>
       </c>
       <c r="B178" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C178" s="46">
         <v>1</v>
       </c>
       <c r="D178" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E178" s="46">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E179" s="46">
         <v>2</v>
@@ -6362,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E180" s="46">
         <v>1</v>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E181" s="46">
         <v>1</v>
@@ -6396,13 +6396,13 @@
         <v>1193127</v>
       </c>
       <c r="B182" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C182" s="46">
         <v>1</v>
       </c>
       <c r="D182" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E182" s="46">
         <v>3</v>
@@ -6416,13 +6416,13 @@
         <v>1193127</v>
       </c>
       <c r="B183" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C183" s="46">
         <v>1</v>
       </c>
       <c r="D183" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E183" s="46">
         <v>3</v>
@@ -6436,13 +6436,13 @@
         <v>1193127</v>
       </c>
       <c r="B184" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C184" s="46">
         <v>1</v>
       </c>
       <c r="D184" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E184" s="46">
         <v>3</v>
@@ -6456,13 +6456,13 @@
         <v>1193127</v>
       </c>
       <c r="B185" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C185" s="46">
         <v>1</v>
       </c>
       <c r="D185" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E185" s="46">
         <v>2</v>
@@ -6476,13 +6476,13 @@
         <v>1196126</v>
       </c>
       <c r="B186" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C186" s="46">
         <v>1</v>
       </c>
       <c r="D186" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E186" s="46">
         <v>2</v>
@@ -6496,13 +6496,13 @@
         <v>1196126</v>
       </c>
       <c r="B187" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C187" s="46">
         <v>1</v>
       </c>
       <c r="D187" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E187" s="46">
         <v>1</v>
@@ -6516,13 +6516,13 @@
         <v>1201366</v>
       </c>
       <c r="B188" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C188" s="61">
         <v>1</v>
       </c>
       <c r="D188" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E188" s="61">
         <v>3</v>
@@ -6536,13 +6536,13 @@
         <v>1201366</v>
       </c>
       <c r="B189" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C189" s="61">
         <v>1</v>
       </c>
       <c r="D189" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E189" s="61">
         <v>3</v>
@@ -6556,13 +6556,13 @@
         <v>1201366</v>
       </c>
       <c r="B190" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C190" s="61">
         <v>1</v>
       </c>
       <c r="D190" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E190" s="61">
         <v>3</v>
@@ -6576,13 +6576,13 @@
         <v>1201366</v>
       </c>
       <c r="B191" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C191" s="61">
         <v>1</v>
       </c>
       <c r="D191" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E191" s="61">
         <v>3</v>
@@ -6596,13 +6596,13 @@
         <v>1201366</v>
       </c>
       <c r="B192" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C192" s="61">
         <v>1</v>
       </c>
       <c r="D192" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E192" s="61">
         <v>3</v>
@@ -6616,13 +6616,13 @@
         <v>1201366</v>
       </c>
       <c r="B193" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C193" s="61">
         <v>1</v>
       </c>
       <c r="D193" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E193" s="61">
         <v>1</v>
@@ -6636,13 +6636,13 @@
         <v>1201366</v>
       </c>
       <c r="B194" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C194" s="61">
         <v>2</v>
       </c>
       <c r="D194" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E194" s="61">
         <v>4</v>
@@ -6656,13 +6656,13 @@
         <v>1201366</v>
       </c>
       <c r="B195" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C195" s="61">
         <v>2</v>
       </c>
       <c r="D195" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E195" s="61">
         <v>4</v>
@@ -6676,13 +6676,13 @@
         <v>1201366</v>
       </c>
       <c r="B196" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C196" s="61">
         <v>2</v>
       </c>
       <c r="D196" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E196" s="61">
         <v>4</v>
@@ -6696,13 +6696,13 @@
         <v>1201366</v>
       </c>
       <c r="B197" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C197" s="61">
         <v>2</v>
       </c>
       <c r="D197" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E197" s="61">
         <v>4</v>
@@ -6716,13 +6716,13 @@
         <v>1201366</v>
       </c>
       <c r="B198" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C198" s="61">
         <v>2</v>
       </c>
       <c r="D198" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E198" s="61">
         <v>4</v>
@@ -6736,13 +6736,13 @@
         <v>1201366</v>
       </c>
       <c r="B199" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C199" s="61">
         <v>2</v>
       </c>
       <c r="D199" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E199" s="61">
         <v>2</v>
@@ -6756,13 +6756,13 @@
         <v>1201366</v>
       </c>
       <c r="B200" s="61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C200" s="61">
         <v>2</v>
       </c>
       <c r="D200" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E200" s="61">
         <v>2</v>
@@ -6776,13 +6776,13 @@
         <v>1214731</v>
       </c>
       <c r="B201" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C201" s="46">
         <v>1</v>
       </c>
       <c r="D201" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E201" s="46">
         <v>2</v>
@@ -6796,13 +6796,13 @@
         <v>1214731</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C202" s="46">
         <v>1</v>
       </c>
       <c r="D202" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E202" s="46">
         <v>1</v>
@@ -6816,13 +6816,13 @@
         <v>1216752</v>
       </c>
       <c r="B203" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C203" s="46">
         <v>1</v>
       </c>
       <c r="D203" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E203" s="46">
         <v>2</v>
@@ -6836,13 +6836,13 @@
         <v>1216752</v>
       </c>
       <c r="B204" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C204" s="46">
         <v>1</v>
       </c>
       <c r="D204" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E204" s="46">
         <v>2</v>
@@ -6856,13 +6856,13 @@
         <v>1216752</v>
       </c>
       <c r="B205" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C205" s="46">
         <v>1</v>
       </c>
       <c r="D205" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E205" s="46">
         <v>2</v>
@@ -6876,13 +6876,13 @@
         <v>1216752</v>
       </c>
       <c r="B206" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C206" s="46">
         <v>1</v>
       </c>
       <c r="D206" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E206" s="46">
         <v>1</v>
@@ -6896,13 +6896,13 @@
         <v>1226707</v>
       </c>
       <c r="B207" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C207" s="46">
         <v>1</v>
       </c>
       <c r="D207" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E207" s="46">
         <v>2</v>
@@ -6916,13 +6916,13 @@
         <v>1226707</v>
       </c>
       <c r="B208" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C208" s="46">
         <v>1</v>
       </c>
       <c r="D208" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E208" s="46">
         <v>1</v>
@@ -6936,13 +6936,13 @@
         <v>1227900</v>
       </c>
       <c r="B209" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C209" s="46">
         <v>1</v>
       </c>
       <c r="D209" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E209" s="46">
         <v>2</v>
@@ -6956,13 +6956,13 @@
         <v>1227900</v>
       </c>
       <c r="B210" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C210" s="46">
         <v>1</v>
       </c>
       <c r="D210" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E210" s="46">
         <v>1</v>
@@ -6976,13 +6976,13 @@
         <v>1236465</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C211" s="46">
         <v>1</v>
       </c>
       <c r="D211" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E211" s="46">
         <v>4</v>
@@ -6996,13 +6996,13 @@
         <v>1236465</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C212" s="46">
         <v>1</v>
       </c>
       <c r="D212" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E212" s="46">
         <v>4</v>
@@ -7016,13 +7016,13 @@
         <v>1236465</v>
       </c>
       <c r="B213" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C213" s="46">
         <v>1</v>
       </c>
       <c r="D213" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E213" s="46">
         <v>4</v>
@@ -7036,13 +7036,13 @@
         <v>1236465</v>
       </c>
       <c r="B214" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C214" s="46">
         <v>1</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E214" s="46">
         <v>3</v>
@@ -7056,13 +7056,13 @@
         <v>1236465</v>
       </c>
       <c r="B215" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C215" s="46">
         <v>2</v>
       </c>
       <c r="D215" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E215" s="46">
         <v>4</v>
@@ -7076,13 +7076,13 @@
         <v>1236465</v>
       </c>
       <c r="B216" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C216" s="46">
         <v>2</v>
       </c>
       <c r="D216" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E216" s="46">
         <v>4</v>
@@ -7096,13 +7096,13 @@
         <v>1236465</v>
       </c>
       <c r="B217" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C217" s="46">
         <v>2</v>
       </c>
       <c r="D217" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E217" s="46">
         <v>4</v>
@@ -7116,13 +7116,13 @@
         <v>1236465</v>
       </c>
       <c r="B218" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C218" s="46">
         <v>2</v>
       </c>
       <c r="D218" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E218" s="46">
         <v>4</v>
@@ -7136,13 +7136,13 @@
         <v>1275233</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C219" s="46">
         <v>1</v>
       </c>
       <c r="D219" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E219" s="46">
         <v>1</v>
@@ -7156,13 +7156,13 @@
         <v>1275233</v>
       </c>
       <c r="B220" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C220" s="46">
         <v>1</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E220" s="46">
         <v>1</v>
@@ -7176,13 +7176,13 @@
         <v>1275233</v>
       </c>
       <c r="B221" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C221" s="46">
         <v>1</v>
       </c>
       <c r="D221" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E221" s="46">
         <v>1</v>
@@ -7196,13 +7196,13 @@
         <v>1292023</v>
       </c>
       <c r="B222" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C222" s="46">
         <v>1</v>
       </c>
       <c r="D222" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E222" s="46">
         <v>1</v>
@@ -7216,13 +7216,13 @@
         <v>1292023</v>
       </c>
       <c r="B223" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C223" s="46">
         <v>1</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E223" s="46">
         <v>1</v>
@@ -7236,13 +7236,13 @@
         <v>1304492</v>
       </c>
       <c r="B224" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C224" s="46">
         <v>1</v>
       </c>
       <c r="D224" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E224" s="46">
         <v>1</v>
@@ -7256,13 +7256,13 @@
         <v>1304492</v>
       </c>
       <c r="B225" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C225" s="46">
         <v>1</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E225" s="46">
         <v>1</v>
@@ -7276,13 +7276,13 @@
         <v>1309016</v>
       </c>
       <c r="B226" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C226" s="46">
         <v>1</v>
       </c>
       <c r="D226" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E226" s="46">
         <v>4</v>
@@ -7296,13 +7296,13 @@
         <v>1309016</v>
       </c>
       <c r="B227" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C227" s="46">
         <v>1</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E227" s="46">
         <v>4</v>
@@ -7316,13 +7316,13 @@
         <v>1309016</v>
       </c>
       <c r="B228" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C228" s="46">
         <v>1</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E228" s="46">
         <v>4</v>
@@ -7336,13 +7336,13 @@
         <v>1309016</v>
       </c>
       <c r="B229" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C229" s="46">
         <v>1</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E229" s="46">
         <v>4</v>
@@ -7356,13 +7356,13 @@
         <v>1309016</v>
       </c>
       <c r="B230" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C230" s="46">
         <v>1</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E230" s="46">
         <v>4</v>
@@ -7376,13 +7376,13 @@
         <v>1309016</v>
       </c>
       <c r="B231" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C231" s="46">
         <v>1</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E231" s="46">
         <v>3</v>
@@ -7396,13 +7396,13 @@
         <v>1309016</v>
       </c>
       <c r="B232" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C232" s="46">
         <v>1</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E232" s="46">
         <v>3</v>
@@ -7416,13 +7416,13 @@
         <v>1309016</v>
       </c>
       <c r="B233" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C233" s="46">
         <v>2</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E233" s="46">
         <v>5</v>
@@ -7436,13 +7436,13 @@
         <v>1309016</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C234" s="46">
         <v>2</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E234" s="46">
         <v>4</v>
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E235" s="46">
         <v>2</v>
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E236" s="46">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E237" s="46">
         <v>1</v>
@@ -7516,13 +7516,13 @@
         <v>1327185</v>
       </c>
       <c r="B238" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C238" s="46">
         <v>1</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E238" s="46">
         <v>4</v>
@@ -7536,13 +7536,13 @@
         <v>1327185</v>
       </c>
       <c r="B239" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C239" s="46">
         <v>1</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E239" s="46">
         <v>3</v>
@@ -7556,13 +7556,13 @@
         <v>1327185</v>
       </c>
       <c r="B240" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C240" s="46">
         <v>1</v>
       </c>
       <c r="D240" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E240" s="46">
         <v>3</v>
@@ -7576,13 +7576,13 @@
         <v>1327185</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C241" s="46">
         <v>1</v>
       </c>
       <c r="D241" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E241" s="46">
         <v>3</v>
@@ -7596,13 +7596,13 @@
         <v>1327257</v>
       </c>
       <c r="B242" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C242" s="46">
         <v>1</v>
       </c>
       <c r="D242" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E242" s="46">
         <v>2</v>
@@ -7616,13 +7616,13 @@
         <v>1327257</v>
       </c>
       <c r="B243" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C243" s="46">
         <v>1</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E243" s="46">
         <v>2</v>
@@ -7636,13 +7636,13 @@
         <v>1327257</v>
       </c>
       <c r="B244" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C244" s="46">
         <v>1</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E244" s="46">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>1408807</v>
       </c>
       <c r="B245" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C245" s="46">
         <v>1</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E245" s="46">
         <v>2</v>
@@ -7676,13 +7676,13 @@
         <v>1408807</v>
       </c>
       <c r="B246" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C246" s="46">
         <v>1</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E246" s="46">
         <v>2</v>
@@ -7696,13 +7696,13 @@
         <v>1408807</v>
       </c>
       <c r="B247" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C247" s="46">
         <v>1</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E247" s="46">
         <v>2</v>
@@ -7716,13 +7716,13 @@
         <v>1408807</v>
       </c>
       <c r="B248" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C248" s="46">
         <v>1</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E248" s="46">
         <v>2</v>
@@ -7736,13 +7736,13 @@
         <v>1408807</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C249" s="46">
         <v>1</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E249" s="46">
         <v>2</v>
@@ -7756,13 +7756,13 @@
         <v>1408807</v>
       </c>
       <c r="B250" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250" s="46">
         <v>1</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E250" s="46">
         <v>2</v>
@@ -8304,7 +8304,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" ht="22.2">
       <c r="A1" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="2" spans="1:7" ht="16.2">
       <c r="A2" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12">
@@ -8321,19 +8321,19 @@
     </row>
     <row r="4" spans="1:7" ht="12.6">
       <c r="A4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.6">
@@ -8341,13 +8341,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="42"/>
       <c r="E5" s="43"/>
       <c r="F5" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.6">
@@ -8355,13 +8355,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="42"/>
       <c r="E6" s="43"/>
       <c r="F6" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.6">
@@ -8369,15 +8369,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.6">
@@ -8388,14 +8388,14 @@
         <v>40</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>59</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.6">
@@ -8403,13 +8403,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
       <c r="F9" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.6">
@@ -8423,7 +8423,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
       <c r="F10" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
